--- a/JAMppdf/expdata/50000.xlsx
+++ b/JAMppdf/expdata/50000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/fitpack2/database/pidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/fitpack2/database/JAMppdf/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE281836-7826-5649-A5F7-93FC95986D5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C21DB1F-9C98-3F4C-BFA4-93B5436E9968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="26700" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6900" yWindow="2120" windowWidth="26700" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="10">
   <si>
     <t>Q2</t>
   </si>
@@ -468,11 +468,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -505,16 +503,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8.7965163383441014E-2</v>
+        <v>-45.587498773198327</v>
       </c>
       <c r="B2">
-        <v>2.1809911118187419E-2</v>
+        <v>255.9903063251414</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -528,16 +526,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.11225027802168459</v>
+        <v>-39.301108495562097</v>
       </c>
       <c r="B3">
-        <v>2.187950141795407E-2</v>
+        <v>252.7081206940118</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -551,16 +549,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.1204637424938086</v>
+        <v>-38.535564197642927</v>
       </c>
       <c r="B4">
-        <v>2.173119030467404E-2</v>
+        <v>252.76333028356129</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -574,16 +572,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.12520869232671381</v>
+        <v>-39.247633027553981</v>
       </c>
       <c r="B5">
-        <v>2.160706898723825E-2</v>
+        <v>253.7438661551144</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -597,16 +595,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.12846711312357301</v>
+        <v>-39.726226442532678</v>
       </c>
       <c r="B6">
-        <v>2.1505817292111429E-2</v>
+        <v>254.14039309477289</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -620,16 +618,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.130913961429829</v>
+        <v>-40.459399494874667</v>
       </c>
       <c r="B7">
-        <v>2.142130822097027E-2</v>
+        <v>254.69419301208981</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -643,16 +641,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.13285518838330351</v>
+        <v>-41.634122394833149</v>
       </c>
       <c r="B8">
-        <v>2.1349133291330639E-2</v>
+        <v>255.50409737267299</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>0.05</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -666,16 +664,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.13445377018641869</v>
+        <v>-29.778946680578311</v>
       </c>
       <c r="B9">
-        <v>2.128631306241521E-2</v>
+        <v>160.82069286320981</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.05</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -689,16 +687,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.13580616302378501</v>
+        <v>-24.807218795839781</v>
       </c>
       <c r="B10">
-        <v>2.123079305580905E-2</v>
+        <v>159.03105451151339</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0.05</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -712,16 +710,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>0.13748091279951949</v>
+        <v>-24.169396638827742</v>
       </c>
       <c r="B11">
-        <v>2.116065360507054E-2</v>
+        <v>159.2168903260482</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>0.05</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -735,16 +733,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>9.7232928396031773E-2</v>
+        <v>-24.584538875327361</v>
       </c>
       <c r="B12">
-        <v>2.312135551856986E-2</v>
+        <v>160.0634686434127</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>5.5E-2</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -758,16 +756,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>0.12222794802533379</v>
+        <v>-24.900759953351521</v>
       </c>
       <c r="B13">
-        <v>2.28576936398165E-2</v>
+        <v>160.37912524013751</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>5.5E-2</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -781,16 +779,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>0.1305742453813396</v>
+        <v>-25.390411671797541</v>
       </c>
       <c r="B14">
-        <v>2.259564214793797E-2</v>
+        <v>160.81226883529951</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>5.5E-2</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -804,16 +802,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>0.13536842202726679</v>
+        <v>-26.16058854649464</v>
       </c>
       <c r="B15">
-        <v>2.2406123380868091E-2</v>
+        <v>161.43428055728421</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>5.5E-2</v>
+        <v>1.6237767391887208E-5</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -827,16 +825,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0.13864826773282399</v>
+        <v>-19.610276592008891</v>
       </c>
       <c r="B16">
-        <v>2.2260189618759089E-2</v>
+        <v>101.12811388025099</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -850,16 +848,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>0.14110429610209341</v>
+        <v>-15.45235008204758</v>
       </c>
       <c r="B17">
-        <v>2.2142281510324598E-2</v>
+        <v>100.2070829654832</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -873,16 +871,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>0.143048452307903</v>
+        <v>-14.82585658331079</v>
       </c>
       <c r="B18">
-        <v>2.2043717706211201E-2</v>
+        <v>100.43501557607</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -896,16 +894,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>0.1446464766887447</v>
+        <v>-14.91027232844916</v>
       </c>
       <c r="B19">
-        <v>2.195924615821539E-2</v>
+        <v>101.1403148462327</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -919,16 +917,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0.1459962562179602</v>
+        <v>-15.078858105541499</v>
       </c>
       <c r="B20">
-        <v>2.1885469817758869E-2</v>
+        <v>101.38944204449599</v>
       </c>
       <c r="C20">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -942,16 +940,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>0.14766521889469861</v>
+        <v>-15.35612432212818</v>
       </c>
       <c r="B21">
-        <v>2.1792845361462251E-2</v>
+        <v>101.7269889465811</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>5.5E-2</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -965,16 +963,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>0.10648797564369721</v>
+        <v>-15.79537023724049</v>
       </c>
       <c r="B22">
-        <v>2.4320090926637481E-2</v>
+        <v>102.2051990577117</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>0.06</v>
+        <v>2.6366508987303559E-5</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -988,16 +986,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>0.132013320162228</v>
+        <v>-12.6817187865988</v>
       </c>
       <c r="B23">
-        <v>2.372087538397509E-2</v>
+        <v>63.667361630756083</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -1011,16 +1009,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>0.14042865728645501</v>
+        <v>-9.1366758291370012</v>
       </c>
       <c r="B24">
-        <v>2.3347340302765501E-2</v>
+        <v>63.243841995111403</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1034,16 +1032,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>0.14523469202167019</v>
+        <v>-8.4986189024857364</v>
       </c>
       <c r="B25">
-        <v>2.3094378044171419E-2</v>
+        <v>63.471317632284567</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -1057,16 +1055,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0.14851012641584529</v>
+        <v>-8.3065747240115044</v>
       </c>
       <c r="B26">
-        <v>2.290537249309306E-2</v>
+        <v>64.048796227237005</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1080,16 +1078,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0.15095585698400771</v>
+        <v>-8.3582058334952283</v>
       </c>
       <c r="B27">
-        <v>2.2755416243608249E-2</v>
+        <v>64.245069425751439</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1103,16 +1101,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0.1528874508583048</v>
+        <v>-8.4697284894776121</v>
       </c>
       <c r="B28">
-        <v>2.2631621033876521E-2</v>
+        <v>64.508410316457613</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1126,16 +1124,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.15447213944435931</v>
+        <v>-8.6599776008338427</v>
       </c>
       <c r="B29">
-        <v>2.2526507972999411E-2</v>
+        <v>64.877461963614451</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D29">
-        <v>0.06</v>
+        <v>4.2813323987193957E-5</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1149,16 +1147,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0.15580848298366859</v>
+        <v>-7.8971332387172071</v>
       </c>
       <c r="B30">
-        <v>2.243536940144816E-2</v>
+        <v>40.146310297398593</v>
       </c>
       <c r="C30">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0.06</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1172,16 +1170,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0.15745822586646319</v>
+        <v>-4.8555765366965904</v>
       </c>
       <c r="B31">
-        <v>2.232140337820521E-2</v>
+        <v>40.000760908872707</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>0.06</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1195,16 +1193,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0.1157167930865816</v>
+        <v>-4.2091550582166359</v>
       </c>
       <c r="B32">
-        <v>2.5413644196578881E-2</v>
+        <v>40.209690599210987</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1218,16 +1216,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>0.14160588157027421</v>
+        <v>-3.8097832448546569</v>
       </c>
       <c r="B33">
-        <v>2.448140459874908E-2</v>
+        <v>40.679402300751761</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
@@ -1241,16 +1239,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>0.15003200338167169</v>
+        <v>-3.7748410996243988</v>
       </c>
       <c r="B34">
-        <v>2.3999912057774339E-2</v>
+        <v>40.834376552572877</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
@@ -1264,16 +1262,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>0.1548160025223097</v>
+        <v>-3.7644528976629159</v>
       </c>
       <c r="B35">
-        <v>2.3686105290018109E-2</v>
+        <v>41.040542205554651</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
@@ -1287,16 +1285,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>0.1580636953415592</v>
+        <v>-3.7765300552813179</v>
       </c>
       <c r="B36">
-        <v>2.345604270476816E-2</v>
+        <v>41.326665114797017</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9519279617756056E-5</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
@@ -1310,16 +1308,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>0.16048159705292361</v>
+        <v>-4.6323084680411961</v>
       </c>
       <c r="B37">
-        <v>2.327567197740699E-2</v>
+        <v>25.368706180517179</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E37" t="s">
         <v>9</v>
@@ -1333,16 +1331,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0.16238672165078</v>
+        <v>-2.0067574830553241</v>
       </c>
       <c r="B38">
-        <v>2.3128014205079709E-2</v>
+        <v>25.373223741066621</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E38" t="s">
         <v>9</v>
@@ -1356,16 +1354,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0.1639466278992166</v>
+        <v>-1.3590098328281699</v>
       </c>
       <c r="B39">
-        <v>2.3003434806226419E-2</v>
+        <v>25.5581299714298</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D39">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E39" t="s">
         <v>9</v>
@@ -1379,16 +1377,16 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0.16525985859747269</v>
+        <v>-0.81352555027118079</v>
       </c>
       <c r="B40">
-        <v>2.289596182623967E-2</v>
+        <v>25.940237041979088</v>
       </c>
       <c r="C40">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D40">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E40" t="s">
         <v>9</v>
@@ -1402,16 +1400,16 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>0.1668783912430894</v>
+        <v>-0.71746352518141188</v>
       </c>
       <c r="B41">
-        <v>2.2761957866451299E-2</v>
+        <v>26.063096586368822</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>6.5000000000000002E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E41" t="s">
         <v>9</v>
@@ -1425,16 +1423,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>0.1249073714966788</v>
+        <v>-0.62128473228879744</v>
       </c>
       <c r="B42">
-        <v>2.6409692093994911E-2</v>
+        <v>26.225143531083621</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>7.0000000000000007E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E42" t="s">
         <v>9</v>
@@ -1448,16 +1446,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0.1510049941776436</v>
+        <v>-0.51106250744849457</v>
       </c>
       <c r="B43">
-        <v>2.5150850435694309E-2</v>
+        <v>26.44782089219667</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>7.0000000000000007E-2</v>
+        <v>1.128837891684688E-4</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -1471,16 +1469,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>0.15938842658528601</v>
+        <v>-2.4473508891046118</v>
       </c>
       <c r="B44">
-        <v>2.4565895985786259E-2</v>
+        <v>16.07735128928719</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
@@ -1494,16 +1492,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>0.16411948222051129</v>
+        <v>-0.16002702873921629</v>
       </c>
       <c r="B45">
-        <v>2.419431900742337E-2</v>
+        <v>16.159384539014681</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D45">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -1517,16 +1515,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>0.16731825006819381</v>
+        <v>0.48234019330055639</v>
       </c>
       <c r="B46">
-        <v>2.3925503649703871E-2</v>
+        <v>16.320811312123819</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D46">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
@@ -1540,16 +1538,16 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>0.1696924562355572</v>
+        <v>1.123657742560322</v>
       </c>
       <c r="B47">
-        <v>2.3716549422665462E-2</v>
+        <v>16.632924243840979</v>
       </c>
       <c r="C47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -1563,16 +1561,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>0.17155855716939081</v>
+        <v>1.2604834459012031</v>
       </c>
       <c r="B48">
-        <v>2.35465420734371E-2</v>
+        <v>16.730726623116968</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -1586,16 +1584,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>0.17308336982134359</v>
+        <v>1.4138589555630849</v>
       </c>
       <c r="B49">
-        <v>2.3403781903736671E-2</v>
+        <v>16.858477426185789</v>
       </c>
       <c r="C49">
         <v>15</v>
       </c>
       <c r="D49">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E49" t="s">
         <v>9</v>
@@ -1609,16 +1607,16 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>0.17436478648612599</v>
+        <v>1.603668143503687</v>
       </c>
       <c r="B50">
-        <v>2.3281089830742029E-2</v>
+        <v>17.032101261252311</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D50">
-        <v>7.0000000000000007E-2</v>
+        <v>1.832980710832436E-4</v>
       </c>
       <c r="E50" t="s">
         <v>9</v>
@@ -1632,16 +1630,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>0.17594134561400951</v>
+        <v>-1.010832701137105</v>
       </c>
       <c r="B51">
-        <v>2.312845465776308E-2</v>
+        <v>10.230292434689799</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>7.0000000000000007E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E51" t="s">
         <v>9</v>
@@ -1655,16 +1653,16 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>0.13404899543317789</v>
+        <v>1.004019819610648</v>
       </c>
       <c r="B52">
-        <v>2.731593198561642E-2</v>
+        <v>10.35047209858006</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D52">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E52" t="s">
         <v>9</v>
@@ -1678,16 +1676,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>0.16020998600841591</v>
+        <v>1.6342891406486439</v>
       </c>
       <c r="B53">
-        <v>2.5740045730004081E-2</v>
+        <v>10.491409419895801</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E53" t="s">
         <v>9</v>
@@ -1701,16 +1699,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>0.1685014303203681</v>
+        <v>2.3303236495833719</v>
       </c>
       <c r="B54">
-        <v>2.505685103805106E-2</v>
+        <v>10.74787714258315</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D54">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E54" t="s">
         <v>9</v>
@@ -1724,16 +1722,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>0.17315123126045981</v>
+        <v>2.491797759704462</v>
       </c>
       <c r="B55">
-        <v>2.4630915809503679E-2</v>
+        <v>10.825973974135991</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D55">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
@@ -1747,16 +1745,16 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>0.17628175305153351</v>
+        <v>2.6799923564255339</v>
       </c>
       <c r="B56">
-        <v>2.4325848285542458E-2</v>
+        <v>10.926807691339731</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E56" t="s">
         <v>9</v>
@@ -1770,16 +1768,16 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>0.1785978380724586</v>
+        <v>2.917074286227288</v>
       </c>
       <c r="B57">
-        <v>2.4090269690359292E-2</v>
+        <v>11.06210512930887</v>
       </c>
       <c r="C57">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D57">
-        <v>7.4999999999999997E-2</v>
+        <v>2.9763514416313188E-4</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -1793,16 +1791,16 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>0.1804135303681785</v>
+        <v>-7.9309720288109356E-2</v>
       </c>
       <c r="B58">
-        <v>2.389951554296612E-2</v>
+        <v>6.5472418879690943</v>
       </c>
       <c r="C58">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>7.4999999999999997E-2</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E58" t="s">
         <v>9</v>
@@ -1816,16 +1814,16 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>0.18189391856913881</v>
+        <v>1.714899160954265</v>
       </c>
       <c r="B59">
-        <v>2.373992617059709E-2</v>
+        <v>6.6859127571811223</v>
       </c>
       <c r="C59">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>7.4999999999999997E-2</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E59" t="s">
         <v>9</v>
@@ -1839,16 +1837,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>0.1831356617284241</v>
+        <v>2.3260099649614152</v>
       </c>
       <c r="B60">
-        <v>2.360318052765387E-2</v>
+        <v>6.8099621489957718</v>
       </c>
       <c r="C60">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>7.4999999999999997E-2</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -1862,16 +1860,16 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>0.1846605420395564</v>
+        <v>3.043130545036862</v>
       </c>
       <c r="B61">
-        <v>2.3433377911631709E-2</v>
+        <v>7.0220828491831799</v>
       </c>
       <c r="C61">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D61">
-        <v>7.4999999999999997E-2</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E61" t="s">
         <v>9</v>
@@ -1885,16 +1883,16 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>0.14313206133874659</v>
+        <v>3.2165996418237111</v>
       </c>
       <c r="B62">
-        <v>2.8139999118914492E-2</v>
+        <v>7.084554055429261</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D62">
-        <v>0.08</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E62" t="s">
         <v>9</v>
@@ -1908,16 +1906,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>0.1692201970660345</v>
+        <v>3.422279631384666</v>
       </c>
       <c r="B63">
-        <v>2.6259135267696229E-2</v>
+        <v>7.1641003733071917</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D63">
-        <v>0.08</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E63" t="s">
         <v>9</v>
@@ -1931,16 +1929,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>0.1773740375350939</v>
+        <v>3.6824170235273121</v>
       </c>
       <c r="B64">
-        <v>2.5483445504810201E-2</v>
+        <v>7.2692534807094136</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>0.08</v>
+        <v>4.8329302385717522E-4</v>
       </c>
       <c r="E64" t="s">
         <v>9</v>
@@ -1954,16 +1952,16 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>0.18191655474106611</v>
+        <v>0.51822059259912001</v>
       </c>
       <c r="B65">
-        <v>2.5006787073934059E-2</v>
+        <v>4.2256041364249866</v>
       </c>
       <c r="C65">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E65" t="s">
         <v>9</v>
@@ -1977,16 +1975,16 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>0.1849611423741479</v>
+        <v>2.130447502480358</v>
       </c>
       <c r="B66">
-        <v>2.4668086900586379E-2</v>
+        <v>4.3745629316315684</v>
       </c>
       <c r="C66">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E66" t="s">
         <v>9</v>
@@ -2000,16 +1998,16 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>0.1872059421864207</v>
+        <v>2.715282816040375</v>
       </c>
       <c r="B67">
-        <v>2.4407913826499629E-2</v>
+        <v>4.4850153984183354</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E67" t="s">
         <v>9</v>
@@ -2023,16 +2021,16 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>0.18896086326425909</v>
+        <v>3.4263944475155999</v>
       </c>
       <c r="B68">
-        <v>2.4198060418813162E-2</v>
+        <v>4.6615184565940826</v>
       </c>
       <c r="C68">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E68" t="s">
         <v>9</v>
@@ -2046,16 +2044,16 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>0.19038835240095761</v>
+        <v>3.602100472642102</v>
       </c>
       <c r="B69">
-        <v>2.4023022684880321E-2</v>
+        <v>4.7115241895531774</v>
       </c>
       <c r="C69">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D69">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E69" t="s">
         <v>9</v>
@@ -2069,16 +2067,16 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>0.19158329704706109</v>
+        <v>3.812090420161022</v>
       </c>
       <c r="B70">
-        <v>2.3873408396945781E-2</v>
+        <v>4.774181943341528</v>
       </c>
       <c r="C70">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D70">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E70" t="s">
         <v>9</v>
@@ -2092,16 +2090,16 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>0.19304771583746849</v>
+        <v>4.0774372722878223</v>
       </c>
       <c r="B71">
-        <v>2.3687921129240359E-2</v>
+        <v>4.8556130638262136</v>
       </c>
       <c r="C71">
         <v>20</v>
       </c>
       <c r="D71">
-        <v>0.08</v>
+        <v>7.8475997035146064E-4</v>
       </c>
       <c r="E71" t="s">
         <v>9</v>
@@ -2115,16 +2113,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>0.15214791864595531</v>
+        <v>0.89811536404491987</v>
       </c>
       <c r="B72">
-        <v>2.8889414397209521E-2</v>
+        <v>2.7629114882646051</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E72" t="s">
         <v>9</v>
@@ -2138,16 +2136,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>0.17803499812142071</v>
+        <v>2.3559642981404778</v>
       </c>
       <c r="B73">
-        <v>2.6717617874977999E-2</v>
+        <v>2.919889786707452</v>
       </c>
       <c r="C73">
         <v>3</v>
       </c>
       <c r="D73">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E73" t="s">
         <v>9</v>
@@ -2161,16 +2159,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>0.18600889623835859</v>
+        <v>2.907846676265144</v>
       </c>
       <c r="B74">
-        <v>2.5855528585257821E-2</v>
+        <v>3.019168002643418</v>
       </c>
       <c r="C74">
         <v>5</v>
       </c>
       <c r="D74">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E74" t="s">
         <v>9</v>
@@ -2184,16 +2182,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>0.19042012504273231</v>
+        <v>3.5917359126628181</v>
       </c>
       <c r="B75">
-        <v>2.5331907347020791E-2</v>
+        <v>3.166583702726375</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D75">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E75" t="s">
         <v>9</v>
@@ -2207,16 +2205,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>0.19336253604448031</v>
+        <v>3.7623617556924809</v>
       </c>
       <c r="B76">
-        <v>2.4962247049745558E-2</v>
+        <v>3.206589229783642</v>
       </c>
       <c r="C76">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D76">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E76" t="s">
         <v>9</v>
@@ -2230,16 +2228,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>0.19552400174712059</v>
+        <v>3.966925680669243</v>
       </c>
       <c r="B77">
-        <v>2.4679531410365989E-2</v>
+        <v>3.2558430076876772</v>
       </c>
       <c r="C77">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D77">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
@@ -2253,16 +2251,16 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>0.19720869174675931</v>
+        <v>4.2246650626891826</v>
       </c>
       <c r="B78">
-        <v>2.4452232886981451E-2</v>
+        <v>3.318680559896829</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D78">
-        <v>8.5000000000000006E-2</v>
+        <v>1.274274985703133E-3</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
@@ -2276,16 +2274,16 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>0.1985755625023414</v>
+        <v>1.138682180695036</v>
       </c>
       <c r="B79">
-        <v>2.4263125854149789E-2</v>
+        <v>1.8456352540077769</v>
       </c>
       <c r="C79">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>8.5000000000000006E-2</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
@@ -2299,16 +2297,16 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>0.19971723098145369</v>
+        <v>2.4608746944759869</v>
       </c>
       <c r="B80">
-        <v>2.4101821253969091E-2</v>
+        <v>2.009794253353129</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>8.5000000000000006E-2</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E80" t="s">
         <v>9</v>
@@ -2322,16 +2320,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>0.2011132182581149</v>
+        <v>2.9739252377153389</v>
       </c>
       <c r="B81">
-        <v>2.390211909639417E-2</v>
+        <v>2.0989874237622508</v>
       </c>
       <c r="C81">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D81">
-        <v>8.5000000000000006E-2</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E81" t="s">
         <v>9</v>
@@ -2345,16 +2343,16 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>0.16108873056904771</v>
+        <v>3.6145579083848141</v>
       </c>
       <c r="B82">
-        <v>2.9571551103232091E-2</v>
+        <v>2.221801037039687</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D82">
-        <v>0.09</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E82" t="s">
         <v>9</v>
@@ -2368,16 +2366,16 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>0.18665379355052711</v>
+        <v>3.7748075533690559</v>
       </c>
       <c r="B83">
-        <v>2.712438089869245E-2</v>
+        <v>2.253685242669246</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D83">
-        <v>0.09</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E83" t="s">
         <v>9</v>
@@ -2391,16 +2389,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>0.19440835037036569</v>
+        <v>3.9670051205272552</v>
       </c>
       <c r="B84">
-        <v>2.618218651584657E-2</v>
+        <v>2.2922523973761968</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D84">
-        <v>0.09</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
@@ -2414,16 +2412,16 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>0.1986660969671501</v>
+        <v>4.2082410269259691</v>
       </c>
       <c r="B85">
-        <v>2.56154030190512E-2</v>
+        <v>2.3405464690557838</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D85">
-        <v>0.09</v>
+        <v>2.0691380811147901E-3</v>
       </c>
       <c r="E85" t="s">
         <v>9</v>
@@ -2437,16 +2435,16 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>0.20149137973906969</v>
+        <v>1.292881510008381</v>
       </c>
       <c r="B86">
-        <v>2.521745091543557E-2</v>
+        <v>1.2787222939294891</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D86">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E86" t="s">
         <v>9</v>
@@ -2460,16 +2458,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>0.20355845691217489</v>
+        <v>2.4909773881144179</v>
       </c>
       <c r="B87">
-        <v>2.491422449148472E-2</v>
+        <v>1.446395646964987</v>
       </c>
       <c r="C87">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E87" t="s">
         <v>9</v>
@@ -2483,16 +2481,16 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>0.20516426016696929</v>
+        <v>2.9602366180208999</v>
       </c>
       <c r="B88">
-        <v>2.4671108708421981E-2</v>
+        <v>1.5249937066249519</v>
       </c>
       <c r="C88">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E88" t="s">
         <v>9</v>
@@ -2506,16 +2504,16 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>0.20646346550767319</v>
+        <v>3.545926965873297</v>
       </c>
       <c r="B89">
-        <v>2.446928296877143E-2</v>
+        <v>1.625802663790487</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D89">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
@@ -2529,16 +2527,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>0.20754595594894501</v>
+        <v>3.692121688174991</v>
       </c>
       <c r="B90">
-        <v>2.4297437513780971E-2</v>
+        <v>1.65091860607837</v>
       </c>
       <c r="C90">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D90">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
@@ -2552,16 +2550,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>0.20886626420399609</v>
+        <v>3.8672152952701211</v>
       </c>
       <c r="B91">
-        <v>2.408494978011361E-2</v>
+        <v>1.6808185108560389</v>
       </c>
       <c r="C91">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D91">
-        <v>0.09</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
@@ -2575,16 +2573,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>0.16994735191653501</v>
+        <v>4.0860364165859613</v>
       </c>
       <c r="B92">
-        <v>3.0193612244036199E-2</v>
+        <v>1.7176326893704581</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D92">
-        <v>9.5000000000000001E-2</v>
+        <v>3.3598182862837811E-3</v>
       </c>
       <c r="E92" t="s">
         <v>9</v>
@@ -2598,16 +2596,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>0.19507601515537121</v>
+        <v>1.3968534099500349</v>
       </c>
       <c r="B93">
-        <v>2.7487726333188401E-2</v>
+        <v>0.93926679664510693</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E93" t="s">
         <v>9</v>
@@ -2621,16 +2619,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>0.20257448803082151</v>
+        <v>2.4764807094971388</v>
       </c>
       <c r="B94">
-        <v>2.647178503265071E-2</v>
+        <v>1.101109203914471</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E94" t="s">
         <v>9</v>
@@ -2644,16 +2642,16 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>0.20665819113635711</v>
+        <v>2.89783169659405</v>
       </c>
       <c r="B95">
-        <v>2.5865604500442022E-2</v>
+        <v>1.167377370150865</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D95">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
@@ -2667,16 +2665,16 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>0.20935255600572331</v>
+        <v>3.4203440989127869</v>
       </c>
       <c r="B96">
-        <v>2.544197432087263E-2</v>
+        <v>1.247423395801369</v>
       </c>
       <c r="C96">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
@@ -2690,16 +2688,16 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>0.21131508431764329</v>
+        <v>3.5500465530816339</v>
       </c>
       <c r="B97">
-        <v>2.512021184192384E-2</v>
+        <v>1.2666978290138551</v>
       </c>
       <c r="C97">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D97">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
@@ -2713,16 +2711,16 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>0.2128340674919528</v>
+        <v>3.7049695148512631</v>
       </c>
       <c r="B98">
-        <v>2.4862851698162849E-2</v>
+        <v>1.2893523675678991</v>
       </c>
       <c r="C98">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D98">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
@@ -2736,16 +2734,16 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>0.21405916375992851</v>
+        <v>3.8976687779981551</v>
       </c>
       <c r="B99">
-        <v>2.4649606211763452E-2</v>
+        <v>1.3168730802224109</v>
       </c>
       <c r="C99">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D99">
-        <v>9.5000000000000001E-2</v>
+        <v>5.4555947811685147E-3</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -2759,16 +2757,16 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>0.21507709071343051</v>
+        <v>1.4751784004745561</v>
       </c>
       <c r="B100">
-        <v>2.4468321224933781E-2</v>
+        <v>0.74498604889331288</v>
       </c>
       <c r="C100">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>9.5000000000000001E-2</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -2782,16 +2780,16 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>0.21631512013047979</v>
+        <v>2.4368782403358531</v>
       </c>
       <c r="B101">
-        <v>2.424441316346173E-2</v>
+        <v>0.88742752522244883</v>
       </c>
       <c r="C101">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>9.5000000000000001E-2</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
@@ -2805,16 +2803,16 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>0.17871722178150459</v>
+        <v>2.8068474896130069</v>
       </c>
       <c r="B102">
-        <v>3.0762612628096559E-2</v>
+        <v>0.93952803292710718</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D102">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -2828,16 +2826,16 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>0.2033011113503663</v>
+        <v>3.260519292542122</v>
       </c>
       <c r="B103">
-        <v>2.781538856944676E-2</v>
+        <v>0.99959048908948434</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D103">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
@@ -2851,16 +2849,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>0.21050917490978721</v>
+        <v>3.3722020913930999</v>
       </c>
       <c r="B104">
-        <v>2.673200006679962E-2</v>
+        <v>1.013678478871515</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D104">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
@@ -2874,16 +2872,16 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>0.21439975582500129</v>
+        <v>3.5051031793156788</v>
       </c>
       <c r="B105">
-        <v>2.6090084895774461E-2</v>
+        <v>1.0300787692957081</v>
       </c>
       <c r="C105">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D105">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
@@ -2897,16 +2895,16 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>0.21695046684998959</v>
+        <v>3.6695476871138801</v>
       </c>
       <c r="B106">
-        <v>2.564329114015455E-2</v>
+        <v>1.0498065509133401</v>
       </c>
       <c r="C106">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D106">
-        <v>0.1</v>
+        <v>8.8586679041008226E-3</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
@@ -2920,16 +2918,16 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>0.21879909593698321</v>
+        <v>1.5437760610189371</v>
       </c>
       <c r="B107">
-        <v>2.53048778251488E-2</v>
+        <v>0.63565941900104306</v>
       </c>
       <c r="C107">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>0.1</v>
+        <v>1.438449888287663E-2</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
@@ -2943,16 +2941,16 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>0.22022397950165809</v>
+        <v>2.383573086053941</v>
       </c>
       <c r="B108">
-        <v>2.5034766229488251E-2</v>
+        <v>0.74655312754806724</v>
       </c>
       <c r="C108">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D108">
-        <v>0.1</v>
+        <v>1.438449888287663E-2</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
@@ -2966,16 +2964,16 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>0.22136906878091689</v>
+        <v>2.6990841444555018</v>
       </c>
       <c r="B109">
-        <v>2.4811328224281601E-2</v>
+        <v>0.78359269022457445</v>
       </c>
       <c r="C109">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>0.1</v>
+        <v>1.438449888287663E-2</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
@@ -2989,16 +2987,16 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>0.22231751359952459</v>
+        <v>3.0800510226260509</v>
       </c>
       <c r="B110">
-        <v>2.462164027389185E-2</v>
+        <v>0.8246917731192499</v>
       </c>
       <c r="C110">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D110">
-        <v>0.1</v>
+        <v>1.438449888287663E-2</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -3012,24 +3010,714 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>0.2234672495646004</v>
+        <v>3.1728240584641831</v>
       </c>
       <c r="B111">
-        <v>2.438759279125776E-2</v>
+        <v>0.83411924537993665</v>
       </c>
       <c r="C111">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>1.438449888287663E-2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>3.282700891961456</v>
+      </c>
+      <c r="B112">
+        <v>0.8450028344632976</v>
+      </c>
+      <c r="C112">
+        <v>15</v>
+      </c>
+      <c r="D112">
+        <v>1.438449888287663E-2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+      <c r="G112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>3.4178481755770229</v>
+      </c>
+      <c r="B113">
+        <v>0.8579875576037933</v>
+      </c>
+      <c r="C113">
         <v>20</v>
       </c>
-      <c r="D111">
+      <c r="D113">
+        <v>1.438449888287663E-2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>6</v>
+      </c>
+      <c r="G113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1.610877009157712</v>
+      </c>
+      <c r="B114">
+        <v>0.56685097686516239</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+      <c r="G114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>2.3207489327607451</v>
+      </c>
+      <c r="B115">
+        <v>0.63978073707580319</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+      <c r="G115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>2.5789222835163752</v>
+      </c>
+      <c r="B116">
+        <v>0.66206402788535323</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+      <c r="G116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>2.8845420732518519</v>
+      </c>
+      <c r="B117">
+        <v>0.68570631352561739</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+      <c r="G117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>2.9579556021166642</v>
+      </c>
+      <c r="B118">
+        <v>0.69097219618061334</v>
+      </c>
+      <c r="C118">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>3.0443926169971149</v>
+      </c>
+      <c r="B119">
+        <v>0.69697893829115098</v>
+      </c>
+      <c r="C119">
+        <v>15</v>
+      </c>
+      <c r="D119">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>3.1499570484018178</v>
+      </c>
+      <c r="B120">
+        <v>0.70406134916780749</v>
+      </c>
+      <c r="C120">
+        <v>20</v>
+      </c>
+      <c r="D120">
+        <v>2.3357214690901209E-2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1.676217316901409</v>
+      </c>
+      <c r="B121">
+        <v>0.50823059586617469</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>2.244828367395828</v>
+      </c>
+      <c r="B122">
+        <v>0.54278192954981974</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>2.4429679213974631</v>
+      </c>
+      <c r="B123">
+        <v>0.55166809772918468</v>
+      </c>
+      <c r="C123">
+        <v>5</v>
+      </c>
+      <c r="D123">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>2.6715787687927981</v>
+      </c>
+      <c r="B124">
+        <v>0.5600288842569755</v>
+      </c>
+      <c r="C124">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>2.7255272235346109</v>
+      </c>
+      <c r="B125">
+        <v>0.56172093023245406</v>
+      </c>
+      <c r="C125">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>2.7885629070459181</v>
+      </c>
+      <c r="B126">
+        <v>0.56356759610192975</v>
+      </c>
+      <c r="C126">
+        <v>15</v>
+      </c>
+      <c r="D126">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>2.864850032117026</v>
+      </c>
+      <c r="B127">
+        <v>0.56564564140166662</v>
+      </c>
+      <c r="C127">
+        <v>20</v>
+      </c>
+      <c r="D127">
+        <v>3.7926901907322459E-2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1.728992852972753</v>
+      </c>
+      <c r="B128">
+        <v>0.44095965275270421</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>2.1432048279418101</v>
+      </c>
+      <c r="B129">
+        <v>0.44187261251242349</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>2.2791223223312329</v>
+      </c>
+      <c r="B130">
+        <v>0.43988308762430478</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>2.4302670652679321</v>
+      </c>
+      <c r="B131">
+        <v>0.43626351161325982</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>2.4650164020441001</v>
+      </c>
+      <c r="B132">
+        <v>0.43521486707201412</v>
+      </c>
+      <c r="C132">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>2.5051619126561659</v>
+      </c>
+      <c r="B133">
+        <v>0.43389959106524573</v>
+      </c>
+      <c r="C133">
+        <v>15</v>
+      </c>
+      <c r="D133">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>6</v>
+      </c>
+      <c r="G133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>2.5530884272075398</v>
+      </c>
+      <c r="B134">
+        <v>0.43220655690030191</v>
+      </c>
+      <c r="C134">
+        <v>20</v>
+      </c>
+      <c r="D134">
+        <v>6.1584821106602607E-2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1.7460877153305721</v>
+      </c>
+      <c r="B135">
+        <v>0.35704469416819401</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
         <v>0.1</v>
       </c>
-      <c r="E111" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" t="s">
-        <v>6</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>6</v>
+      </c>
+      <c r="G135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1.9931810516044239</v>
+      </c>
+      <c r="B136">
+        <v>0.33431500602835001</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>0.1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>2.0658346740419549</v>
+      </c>
+      <c r="B137">
+        <v>0.32544125485794301</v>
+      </c>
+      <c r="C137">
+        <v>5</v>
+      </c>
+      <c r="D137">
+        <v>0.1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+      <c r="G137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>2.140918915309427</v>
+      </c>
+      <c r="B138">
+        <v>0.31469144129209509</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+      <c r="D138">
+        <v>0.1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>2.1572488546112671</v>
+      </c>
+      <c r="B139">
+        <v>0.31208230241616058</v>
+      </c>
+      <c r="C139">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>0.1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>2.1756474592380228</v>
+      </c>
+      <c r="B140">
+        <v>0.30900115478124213</v>
+      </c>
+      <c r="C140">
+        <v>15</v>
+      </c>
+      <c r="D140">
+        <v>0.1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>6</v>
+      </c>
+      <c r="G140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>2.1969336390324301</v>
+      </c>
+      <c r="B141">
+        <v>0.30524530184518772</v>
+      </c>
+      <c r="C141">
+        <v>20</v>
+      </c>
+      <c r="D141">
+        <v>0.1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+      <c r="G141" t="s">
         <v>7</v>
       </c>
     </row>
